--- a/Data_frame/balancos_definitivos/HBSA3.xlsx
+++ b/Data_frame/balancos_definitivos/HBSA3.xlsx
@@ -819,31 +819,31 @@
         <v>5901997.056</v>
       </c>
       <c r="AO2" t="n">
-        <v>3420891.904</v>
+        <v>6174543.872</v>
       </c>
       <c r="AP2" t="n">
-        <v>3768361.984</v>
+        <v>6517530.112</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3785694.976</v>
+        <v>5907668.992</v>
       </c>
       <c r="AR2" t="n">
-        <v>3803912.96</v>
+        <v>6399284.224</v>
       </c>
       <c r="AS2" t="n">
-        <v>4027976.96</v>
+        <v>6697861.12</v>
       </c>
       <c r="AT2" t="n">
-        <v>4281968.896</v>
+        <v>6363529.216</v>
       </c>
       <c r="AU2" t="n">
-        <v>4310431.744</v>
+        <v>6183058.944</v>
       </c>
       <c r="AV2" t="n">
-        <v>4306720.768</v>
+        <v>6225888.256</v>
       </c>
       <c r="AW2" t="n">
-        <v>4308741.12</v>
+        <v>6408570.88</v>
       </c>
       <c r="AX2" t="n">
         <v>6249047.04</v>
@@ -979,31 +979,31 @@
         <v>1025872</v>
       </c>
       <c r="AO3" t="n">
-        <v>588854.976</v>
+        <v>992476.032</v>
       </c>
       <c r="AP3" t="n">
-        <v>567132.992</v>
+        <v>1226381.056</v>
       </c>
       <c r="AQ3" t="n">
-        <v>521137.984</v>
+        <v>1068937.024</v>
       </c>
       <c r="AR3" t="n">
-        <v>485800.992</v>
+        <v>1281661.056</v>
       </c>
       <c r="AS3" t="n">
-        <v>431020</v>
+        <v>1459089.024</v>
       </c>
       <c r="AT3" t="n">
-        <v>376955.008</v>
+        <v>1289369.984</v>
       </c>
       <c r="AU3" t="n">
-        <v>380164.992</v>
+        <v>1112902.016</v>
       </c>
       <c r="AV3" t="n">
-        <v>335952</v>
+        <v>1293810.048</v>
       </c>
       <c r="AW3" t="n">
-        <v>267727.008</v>
+        <v>1396147.968</v>
       </c>
       <c r="AX3" t="n">
         <v>1320222.976</v>
@@ -1139,31 +1139,31 @@
         <v>229150</v>
       </c>
       <c r="AO4" t="n">
-        <v>38223</v>
+        <v>122155</v>
       </c>
       <c r="AP4" t="n">
-        <v>50645</v>
+        <v>76454</v>
       </c>
       <c r="AQ4" t="n">
-        <v>43854</v>
+        <v>264724</v>
       </c>
       <c r="AR4" t="n">
-        <v>46264</v>
+        <v>123929</v>
       </c>
       <c r="AS4" t="n">
-        <v>40483</v>
+        <v>500587.008</v>
       </c>
       <c r="AT4" t="n">
-        <v>43307</v>
+        <v>401544.992</v>
       </c>
       <c r="AU4" t="n">
-        <v>42873</v>
+        <v>268633.984</v>
       </c>
       <c r="AV4" t="n">
-        <v>46430</v>
+        <v>404252.992</v>
       </c>
       <c r="AW4" t="n">
-        <v>43264</v>
+        <v>648792</v>
       </c>
       <c r="AX4" t="n">
         <v>663918.976</v>
@@ -1299,31 +1299,31 @@
         <v>305255.008</v>
       </c>
       <c r="AO5" t="n">
-        <v>515126.016</v>
+        <v>262284</v>
       </c>
       <c r="AP5" t="n">
-        <v>443078.016</v>
+        <v>582561.9840000001</v>
       </c>
       <c r="AQ5" t="n">
-        <v>368547.008</v>
+        <v>272339.008</v>
       </c>
       <c r="AR5" t="n">
-        <v>328902.016</v>
+        <v>470142.016</v>
       </c>
       <c r="AS5" t="n">
-        <v>300919.008</v>
+        <v>335692</v>
       </c>
       <c r="AT5" t="n">
-        <v>262698</v>
+        <v>333015.008</v>
       </c>
       <c r="AU5" t="n">
-        <v>225632</v>
+        <v>273591.008</v>
       </c>
       <c r="AV5" t="n">
-        <v>181204.992</v>
+        <v>321896.992</v>
       </c>
       <c r="AW5" t="n">
-        <v>132553</v>
+        <v>148318</v>
       </c>
       <c r="AX5" t="n">
         <v>150000.992</v>
@@ -1459,31 +1459,31 @@
         <v>194614</v>
       </c>
       <c r="AO6" t="n">
-        <v>15835</v>
+        <v>263492</v>
       </c>
       <c r="AP6" t="n">
-        <v>28398</v>
+        <v>244620</v>
       </c>
       <c r="AQ6" t="n">
-        <v>28924</v>
+        <v>245856.992</v>
       </c>
       <c r="AR6" t="n">
-        <v>28321</v>
+        <v>349940</v>
       </c>
       <c r="AS6" t="n">
-        <v>29152</v>
+        <v>281521.984</v>
       </c>
       <c r="AT6" t="n">
-        <v>27790</v>
+        <v>212572</v>
       </c>
       <c r="AU6" t="n">
-        <v>54757</v>
+        <v>276609.984</v>
       </c>
       <c r="AV6" t="n">
-        <v>27281</v>
+        <v>212656</v>
       </c>
       <c r="AW6" t="n">
-        <v>25937</v>
+        <v>209324</v>
       </c>
       <c r="AX6" t="n">
         <v>141835.008</v>
@@ -1619,31 +1619,31 @@
         <v>79825</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>88127</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>94347</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>104947</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>128890</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>122381</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>106443</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>100832</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>102629</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>109704</v>
       </c>
       <c r="AX7" t="n">
         <v>93826</v>
@@ -1939,31 +1939,31 @@
         <v>75087</v>
       </c>
       <c r="AO9" t="n">
-        <v>4893</v>
+        <v>82014</v>
       </c>
       <c r="AP9" t="n">
-        <v>4709</v>
+        <v>93148</v>
       </c>
       <c r="AQ9" t="n">
-        <v>7953</v>
+        <v>67474</v>
       </c>
       <c r="AR9" t="n">
-        <v>8754</v>
+        <v>97317</v>
       </c>
       <c r="AS9" t="n">
-        <v>9807</v>
+        <v>122442</v>
       </c>
       <c r="AT9" t="n">
-        <v>9753</v>
+        <v>129164</v>
       </c>
       <c r="AU9" t="n">
-        <v>15139</v>
+        <v>103030</v>
       </c>
       <c r="AV9" t="n">
-        <v>15398</v>
+        <v>142824</v>
       </c>
       <c r="AW9" t="n">
-        <v>16904</v>
+        <v>168014</v>
       </c>
       <c r="AX9" t="n">
         <v>181186</v>
@@ -2099,25 +2099,25 @@
         <v>49263</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>49009</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>26288</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>21064</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>31180</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>23311</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>13965</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>11853</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -2259,31 +2259,31 @@
         <v>92678</v>
       </c>
       <c r="AO11" t="n">
-        <v>14778</v>
+        <v>125395</v>
       </c>
       <c r="AP11" t="n">
-        <v>40303</v>
+        <v>108962</v>
       </c>
       <c r="AQ11" t="n">
-        <v>71860</v>
+        <v>92532</v>
       </c>
       <c r="AR11" t="n">
-        <v>73560</v>
+        <v>80263</v>
       </c>
       <c r="AS11" t="n">
-        <v>50659</v>
+        <v>73154</v>
       </c>
       <c r="AT11" t="n">
-        <v>33407</v>
+        <v>92666</v>
       </c>
       <c r="AU11" t="n">
-        <v>41764</v>
+        <v>78352</v>
       </c>
       <c r="AV11" t="n">
-        <v>65638</v>
+        <v>109551</v>
       </c>
       <c r="AW11" t="n">
-        <v>49069</v>
+        <v>111996</v>
       </c>
       <c r="AX11" t="n">
         <v>66295</v>
@@ -2419,31 +2419,31 @@
         <v>381856</v>
       </c>
       <c r="AO12" t="n">
-        <v>75550</v>
+        <v>431289.984</v>
       </c>
       <c r="AP12" t="n">
-        <v>153484.992</v>
+        <v>378137.984</v>
       </c>
       <c r="AQ12" t="n">
-        <v>153911.008</v>
+        <v>303948</v>
       </c>
       <c r="AR12" t="n">
-        <v>154911.008</v>
+        <v>355231.008</v>
       </c>
       <c r="AS12" t="n">
-        <v>157644</v>
+        <v>373105.984</v>
       </c>
       <c r="AT12" t="n">
-        <v>157398</v>
+        <v>337486.016</v>
       </c>
       <c r="AU12" t="n">
-        <v>152666</v>
+        <v>367262.016</v>
       </c>
       <c r="AV12" t="n">
-        <v>149212</v>
+        <v>356628</v>
       </c>
       <c r="AW12" t="n">
-        <v>142179.008</v>
+        <v>397019.008</v>
       </c>
       <c r="AX12" t="n">
         <v>348318.016</v>
@@ -2579,31 +2579,31 @@
         <v>12947</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>13108</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>13295</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>13622</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>13883</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>19671</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>18877</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>19113</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>18459</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>16247</v>
       </c>
       <c r="AX13" t="n">
         <v>16547</v>
@@ -3059,31 +3059,31 @@
         <v>6400</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="AU16" t="n">
-        <v>33</v>
+        <v>4800</v>
       </c>
       <c r="AV16" t="n">
-        <v>348</v>
+        <v>4000</v>
       </c>
       <c r="AW16" t="n">
-        <v>508</v>
+        <v>4000</v>
       </c>
       <c r="AX16" t="n">
         <v>4000</v>
@@ -3539,31 +3539,31 @@
         <v>260816.992</v>
       </c>
       <c r="AO19" t="n">
-        <v>61027</v>
+        <v>302918.016</v>
       </c>
       <c r="AP19" t="n">
-        <v>61088</v>
+        <v>269480.992</v>
       </c>
       <c r="AQ19" t="n">
-        <v>61088</v>
+        <v>200904</v>
       </c>
       <c r="AR19" t="n">
-        <v>61088</v>
+        <v>250850</v>
       </c>
       <c r="AS19" t="n">
-        <v>61088</v>
+        <v>255852.992</v>
       </c>
       <c r="AT19" t="n">
-        <v>61088</v>
+        <v>213554</v>
       </c>
       <c r="AU19" t="n">
-        <v>61088</v>
+        <v>221040</v>
       </c>
       <c r="AV19" t="n">
-        <v>61088</v>
+        <v>190428.992</v>
       </c>
       <c r="AW19" t="n">
-        <v>61088</v>
+        <v>218819.008</v>
       </c>
       <c r="AX19" t="n">
         <v>163191.008</v>
@@ -3699,25 +3699,25 @@
         <v>48433</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>51991</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>35030</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>31104</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>30525</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>26492</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>26099</v>
       </c>
       <c r="AU20" t="n">
-        <v>0</v>
+        <v>24875</v>
       </c>
       <c r="AV20" t="n">
         <v>0</v>
@@ -3859,31 +3859,31 @@
         <v>3155</v>
       </c>
       <c r="AO21" t="n">
-        <v>2710</v>
+        <v>5509</v>
       </c>
       <c r="AP21" t="n">
-        <v>2705</v>
+        <v>5778</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2721</v>
+        <v>4875</v>
       </c>
       <c r="AR21" t="n">
-        <v>2705</v>
+        <v>5390</v>
       </c>
       <c r="AS21" t="n">
-        <v>2695</v>
+        <v>5563</v>
       </c>
       <c r="AT21" t="n">
-        <v>2710</v>
+        <v>5369</v>
       </c>
       <c r="AU21" t="n">
-        <v>2741</v>
+        <v>5228</v>
       </c>
       <c r="AV21" t="n">
-        <v>2741</v>
+        <v>4959</v>
       </c>
       <c r="AW21" t="n">
-        <v>2819</v>
+        <v>5208</v>
       </c>
       <c r="AX21" t="n">
         <v>4982</v>
@@ -4019,31 +4019,31 @@
         <v>85141</v>
       </c>
       <c r="AO22" t="n">
-        <v>2751491.072</v>
+        <v>88275</v>
       </c>
       <c r="AP22" t="n">
-        <v>3042394.88</v>
+        <v>103705</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3105135.104</v>
+        <v>89899</v>
       </c>
       <c r="AR22" t="n">
-        <v>3157672.96</v>
+        <v>111187</v>
       </c>
       <c r="AS22" t="n">
-        <v>3430716.928</v>
+        <v>118600</v>
       </c>
       <c r="AT22" t="n">
-        <v>3735337.984</v>
+        <v>109592</v>
       </c>
       <c r="AU22" t="n">
-        <v>3767169.024</v>
+        <v>105243</v>
       </c>
       <c r="AV22" t="n">
-        <v>3811363.072</v>
+        <v>103733</v>
       </c>
       <c r="AW22" t="n">
-        <v>3889093.12</v>
+        <v>107034</v>
       </c>
       <c r="AX22" t="n">
         <v>102026</v>
@@ -4179,31 +4179,31 @@
         <v>4085864.96</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>4338498.048</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>4461864.96</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>4098006.016</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>4300758.016</v>
       </c>
       <c r="AS23" t="n">
-        <v>0</v>
+        <v>4403825.152</v>
       </c>
       <c r="AT23" t="n">
-        <v>0</v>
+        <v>4284733.952</v>
       </c>
       <c r="AU23" t="n">
-        <v>0</v>
+        <v>4255892.992</v>
       </c>
       <c r="AV23" t="n">
-        <v>0</v>
+        <v>4129592.064</v>
       </c>
       <c r="AW23" t="n">
-        <v>0</v>
+        <v>4176375.04</v>
       </c>
       <c r="AX23" t="n">
         <v>4147084.032</v>
@@ -4339,31 +4339,31 @@
         <v>323263.008</v>
       </c>
       <c r="AO24" t="n">
-        <v>4996</v>
+        <v>324004.992</v>
       </c>
       <c r="AP24" t="n">
-        <v>5349</v>
+        <v>347440.992</v>
       </c>
       <c r="AQ24" t="n">
-        <v>5511</v>
+        <v>346879.008</v>
       </c>
       <c r="AR24" t="n">
-        <v>5528</v>
+        <v>350447.008</v>
       </c>
       <c r="AS24" t="n">
-        <v>8596</v>
+        <v>343240.992</v>
       </c>
       <c r="AT24" t="n">
-        <v>12278</v>
+        <v>342347.008</v>
       </c>
       <c r="AU24" t="n">
-        <v>10432</v>
+        <v>341759.008</v>
       </c>
       <c r="AV24" t="n">
-        <v>10194</v>
+        <v>342124.992</v>
       </c>
       <c r="AW24" t="n">
-        <v>9742</v>
+        <v>331995.008</v>
       </c>
       <c r="AX24" t="n">
         <v>331396</v>
@@ -4659,31 +4659,31 @@
         <v>5901997.056</v>
       </c>
       <c r="AO26" t="n">
-        <v>3420891.904</v>
+        <v>6174543.872</v>
       </c>
       <c r="AP26" t="n">
-        <v>3768361.984</v>
+        <v>6517530.112</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3785694.976</v>
+        <v>5907668.992</v>
       </c>
       <c r="AR26" t="n">
-        <v>3803912.96</v>
+        <v>6399284.224</v>
       </c>
       <c r="AS26" t="n">
-        <v>4027976.96</v>
+        <v>6697861.12</v>
       </c>
       <c r="AT26" t="n">
-        <v>4281968.896</v>
+        <v>6363529.216</v>
       </c>
       <c r="AU26" t="n">
-        <v>4310431.744</v>
+        <v>6183058.944</v>
       </c>
       <c r="AV26" t="n">
-        <v>4306720.768</v>
+        <v>6225888.256</v>
       </c>
       <c r="AW26" t="n">
-        <v>4308741.12</v>
+        <v>6408570.88</v>
       </c>
       <c r="AX26" t="n">
         <v>6249047.04</v>
@@ -4819,31 +4819,31 @@
         <v>507472</v>
       </c>
       <c r="AO27" t="n">
-        <v>277212.992</v>
+        <v>517376</v>
       </c>
       <c r="AP27" t="n">
-        <v>237755.008</v>
+        <v>602288</v>
       </c>
       <c r="AQ27" t="n">
-        <v>233628</v>
+        <v>556844.032</v>
       </c>
       <c r="AR27" t="n">
-        <v>224735.008</v>
+        <v>651761.9840000001</v>
       </c>
       <c r="AS27" t="n">
-        <v>268819.008</v>
+        <v>618139.008</v>
       </c>
       <c r="AT27" t="n">
-        <v>315419.008</v>
+        <v>692281.9840000001</v>
       </c>
       <c r="AU27" t="n">
-        <v>314828.992</v>
+        <v>577326.976</v>
       </c>
       <c r="AV27" t="n">
-        <v>288345.984</v>
+        <v>608716.992</v>
       </c>
       <c r="AW27" t="n">
-        <v>263532.992</v>
+        <v>572548.992</v>
       </c>
       <c r="AX27" t="n">
         <v>743222.976</v>
@@ -4979,31 +4979,31 @@
         <v>38971</v>
       </c>
       <c r="AO28" t="n">
-        <v>3059</v>
+        <v>49410</v>
       </c>
       <c r="AP28" t="n">
-        <v>3076</v>
+        <v>33756</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4871</v>
+        <v>30451</v>
       </c>
       <c r="AR28" t="n">
-        <v>4758</v>
+        <v>41957</v>
       </c>
       <c r="AS28" t="n">
-        <v>6627</v>
+        <v>54869</v>
       </c>
       <c r="AT28" t="n">
-        <v>5284</v>
+        <v>55529</v>
       </c>
       <c r="AU28" t="n">
-        <v>7586</v>
+        <v>43664</v>
       </c>
       <c r="AV28" t="n">
-        <v>6466</v>
+        <v>48272</v>
       </c>
       <c r="AW28" t="n">
-        <v>6891</v>
+        <v>63431</v>
       </c>
       <c r="AX28" t="n">
         <v>70527</v>
@@ -5139,31 +5139,31 @@
         <v>99934</v>
       </c>
       <c r="AO29" t="n">
-        <v>6646</v>
+        <v>128038</v>
       </c>
       <c r="AP29" t="n">
-        <v>7775</v>
+        <v>146142</v>
       </c>
       <c r="AQ29" t="n">
-        <v>14893</v>
+        <v>165388.992</v>
       </c>
       <c r="AR29" t="n">
-        <v>12053</v>
+        <v>154680.992</v>
       </c>
       <c r="AS29" t="n">
-        <v>11184</v>
+        <v>156462</v>
       </c>
       <c r="AT29" t="n">
-        <v>9700</v>
+        <v>190603.008</v>
       </c>
       <c r="AU29" t="n">
-        <v>17483</v>
+        <v>158522</v>
       </c>
       <c r="AV29" t="n">
-        <v>17661</v>
+        <v>135686</v>
       </c>
       <c r="AW29" t="n">
-        <v>16910</v>
+        <v>131704</v>
       </c>
       <c r="AX29" t="n">
         <v>172452</v>
@@ -5299,31 +5299,31 @@
         <v>52315</v>
       </c>
       <c r="AO30" t="n">
-        <v>718</v>
+        <v>81484</v>
       </c>
       <c r="AP30" t="n">
-        <v>847</v>
+        <v>98459</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1265</v>
+        <v>59143</v>
       </c>
       <c r="AR30" t="n">
-        <v>1618</v>
+        <v>82892</v>
       </c>
       <c r="AS30" t="n">
-        <v>2197</v>
+        <v>82374</v>
       </c>
       <c r="AT30" t="n">
-        <v>1115</v>
+        <v>114029</v>
       </c>
       <c r="AU30" t="n">
-        <v>2469</v>
+        <v>99606</v>
       </c>
       <c r="AV30" t="n">
-        <v>3425</v>
+        <v>98254</v>
       </c>
       <c r="AW30" t="n">
-        <v>4901</v>
+        <v>133203</v>
       </c>
       <c r="AX30" t="n">
         <v>152507.008</v>
@@ -5459,31 +5459,31 @@
         <v>249419.008</v>
       </c>
       <c r="AO31" t="n">
-        <v>96527</v>
+        <v>197239.008</v>
       </c>
       <c r="AP31" t="n">
-        <v>102482</v>
+        <v>274876.992</v>
       </c>
       <c r="AQ31" t="n">
-        <v>97861</v>
+        <v>213300.992</v>
       </c>
       <c r="AR31" t="n">
-        <v>96529</v>
+        <v>279953.984</v>
       </c>
       <c r="AS31" t="n">
-        <v>84641</v>
+        <v>206200</v>
       </c>
       <c r="AT31" t="n">
-        <v>101678</v>
+        <v>240742</v>
       </c>
       <c r="AU31" t="n">
-        <v>100152</v>
+        <v>189830</v>
       </c>
       <c r="AV31" t="n">
-        <v>84748</v>
+        <v>246743.008</v>
       </c>
       <c r="AW31" t="n">
-        <v>87059</v>
+        <v>179791.008</v>
       </c>
       <c r="AX31" t="n">
         <v>257552.992</v>
@@ -5619,31 +5619,31 @@
         <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>100622</v>
+        <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>63724</v>
+        <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>58694</v>
+        <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>54231</v>
+        <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>64249</v>
+        <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>62003</v>
+        <v>0</v>
       </c>
       <c r="AU32" t="n">
-        <v>63922</v>
+        <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>68913</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
-        <v>68777</v>
+        <v>0</v>
       </c>
       <c r="AX32" t="n">
         <v>0</v>
@@ -5939,31 +5939,31 @@
         <v>54016</v>
       </c>
       <c r="AO34" t="n">
-        <v>69641</v>
+        <v>46689</v>
       </c>
       <c r="AP34" t="n">
-        <v>59851</v>
+        <v>26720</v>
       </c>
       <c r="AQ34" t="n">
-        <v>56044</v>
+        <v>62920</v>
       </c>
       <c r="AR34" t="n">
-        <v>55546</v>
+        <v>65948</v>
       </c>
       <c r="AS34" t="n">
-        <v>99921</v>
+        <v>89695</v>
       </c>
       <c r="AT34" t="n">
-        <v>135639.008</v>
+        <v>59359</v>
       </c>
       <c r="AU34" t="n">
-        <v>123217</v>
+        <v>62464</v>
       </c>
       <c r="AV34" t="n">
-        <v>107133</v>
+        <v>58159</v>
       </c>
       <c r="AW34" t="n">
-        <v>78995</v>
+        <v>41712</v>
       </c>
       <c r="AX34" t="n">
         <v>42580</v>
@@ -6099,31 +6099,31 @@
         <v>12817</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>14516</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>22334</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>25640</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>26330</v>
       </c>
       <c r="AS35" t="n">
-        <v>0</v>
+        <v>28539</v>
       </c>
       <c r="AT35" t="n">
-        <v>0</v>
+        <v>32020</v>
       </c>
       <c r="AU35" t="n">
-        <v>0</v>
+        <v>23241</v>
       </c>
       <c r="AV35" t="n">
-        <v>0</v>
+        <v>21603</v>
       </c>
       <c r="AW35" t="n">
-        <v>0</v>
+        <v>22708</v>
       </c>
       <c r="AX35" t="n">
         <v>47604</v>
@@ -6419,31 +6419,31 @@
         <v>3910095.872</v>
       </c>
       <c r="AO37" t="n">
-        <v>1085159.04</v>
+        <v>4229492.992</v>
       </c>
       <c r="AP37" t="n">
-        <v>1179110.016</v>
+        <v>4667588.096</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1196609.024</v>
+        <v>4021187.072</v>
       </c>
       <c r="AR37" t="n">
-        <v>1209534.976</v>
+        <v>4393851.904</v>
       </c>
       <c r="AS37" t="n">
-        <v>1371888</v>
+        <v>4617952.256</v>
       </c>
       <c r="AT37" t="n">
-        <v>1493085.952</v>
+        <v>4340442.112</v>
       </c>
       <c r="AU37" t="n">
-        <v>1504473.984</v>
+        <v>4239215.104</v>
       </c>
       <c r="AV37" t="n">
-        <v>1528515.968</v>
+        <v>4126936.064</v>
       </c>
       <c r="AW37" t="n">
-        <v>1539072</v>
+        <v>4250625.024</v>
       </c>
       <c r="AX37" t="n">
         <v>4122300.928</v>
@@ -6579,31 +6579,31 @@
         <v>3910095.872</v>
       </c>
       <c r="AO38" t="n">
-        <v>913779.968</v>
+        <v>4229492.992</v>
       </c>
       <c r="AP38" t="n">
-        <v>965292.032</v>
+        <v>4662380.032</v>
       </c>
       <c r="AQ38" t="n">
-        <v>983265.9840000001</v>
+        <v>4016765.952</v>
       </c>
       <c r="AR38" t="n">
-        <v>994150.976</v>
+        <v>4385006.08</v>
       </c>
       <c r="AS38" t="n">
-        <v>1009913.024</v>
+        <v>4594487.808</v>
       </c>
       <c r="AT38" t="n">
-        <v>1068171.008</v>
+        <v>4309514.24</v>
       </c>
       <c r="AU38" t="n">
-        <v>1070787.008</v>
+        <v>4210181.888</v>
       </c>
       <c r="AV38" t="n">
-        <v>1083056</v>
+        <v>4051792.896</v>
       </c>
       <c r="AW38" t="n">
-        <v>1079559.04</v>
+        <v>4176730.88</v>
       </c>
       <c r="AX38" t="n">
         <v>4038761.984</v>
@@ -6899,31 +6899,31 @@
         <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>66731</v>
+        <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>67763</v>
+        <v>5208</v>
       </c>
       <c r="AQ40" t="n">
-        <v>68504</v>
+        <v>4421</v>
       </c>
       <c r="AR40" t="n">
-        <v>68923</v>
+        <v>8846</v>
       </c>
       <c r="AS40" t="n">
-        <v>215392.992</v>
+        <v>23464</v>
       </c>
       <c r="AT40" t="n">
-        <v>281532</v>
+        <v>30928</v>
       </c>
       <c r="AU40" t="n">
-        <v>290395.008</v>
+        <v>29033</v>
       </c>
       <c r="AV40" t="n">
-        <v>301958.016</v>
+        <v>75143</v>
       </c>
       <c r="AW40" t="n">
-        <v>316011.008</v>
+        <v>73894</v>
       </c>
       <c r="AX40" t="n">
         <v>83539</v>
@@ -7059,31 +7059,31 @@
         <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>104643</v>
+        <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>146048.992</v>
+        <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>144832.992</v>
+        <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>146455.008</v>
+        <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>146455.008</v>
+        <v>0</v>
       </c>
       <c r="AT41" t="n">
-        <v>143287.008</v>
+        <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>143287.008</v>
+        <v>0</v>
       </c>
       <c r="AV41" t="n">
-        <v>143287.008</v>
+        <v>0</v>
       </c>
       <c r="AW41" t="n">
-        <v>143287.008</v>
+        <v>0</v>
       </c>
       <c r="AX41" t="n">
         <v>0</v>
@@ -7379,31 +7379,31 @@
         <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AQ43" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="AT43" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AU43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV43" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="AW43" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="AX43" t="n">
         <v>0</v>
@@ -7859,31 +7859,31 @@
         <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>290960.992</v>
+        <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>458065.984</v>
+        <v>0</v>
       </c>
       <c r="AQ46" t="n">
-        <v>467179.008</v>
+        <v>0</v>
       </c>
       <c r="AR46" t="n">
-        <v>488415.008</v>
+        <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>501936.992</v>
+        <v>0</v>
       </c>
       <c r="AT46" t="n">
-        <v>544873.9840000001</v>
+        <v>0</v>
       </c>
       <c r="AU46" t="n">
-        <v>573248</v>
+        <v>0</v>
       </c>
       <c r="AV46" t="n">
-        <v>582987.008</v>
+        <v>0</v>
       </c>
       <c r="AW46" t="n">
-        <v>597537.9840000001</v>
+        <v>0</v>
       </c>
       <c r="AX46" t="n">
         <v>0</v>
@@ -8019,31 +8019,31 @@
         <v>1484429.056</v>
       </c>
       <c r="AO47" t="n">
-        <v>1767559.072</v>
+        <v>1427675.008</v>
       </c>
       <c r="AP47" t="n">
-        <v>1893430.976</v>
+        <v>1247654.016</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1888279.04</v>
+        <v>1329638.016</v>
       </c>
       <c r="AR47" t="n">
-        <v>1881228</v>
+        <v>1353670.016</v>
       </c>
       <c r="AS47" t="n">
-        <v>1885332.896</v>
+        <v>1461769.984</v>
       </c>
       <c r="AT47" t="n">
-        <v>1928590.08</v>
+        <v>1330804.992</v>
       </c>
       <c r="AU47" t="n">
-        <v>1917881.088</v>
+        <v>1366516.992</v>
       </c>
       <c r="AV47" t="n">
-        <v>1906872.064</v>
+        <v>1490235.008</v>
       </c>
       <c r="AW47" t="n">
-        <v>1908598.08</v>
+        <v>1585396.992</v>
       </c>
       <c r="AX47" t="n">
         <v>1383522.944</v>
@@ -8179,31 +8179,31 @@
         <v>1334584.064</v>
       </c>
       <c r="AO48" t="n">
-        <v>1321142.016</v>
+        <v>1334584.064</v>
       </c>
       <c r="AP48" t="n">
-        <v>1321142.016</v>
+        <v>1334584.064</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1321142.016</v>
+        <v>1334584.064</v>
       </c>
       <c r="AR48" t="n">
-        <v>1321142.016</v>
+        <v>1334584.064</v>
       </c>
       <c r="AS48" t="n">
-        <v>1321142.016</v>
+        <v>1334584.064</v>
       </c>
       <c r="AT48" t="n">
-        <v>1321142.016</v>
+        <v>1334584.064</v>
       </c>
       <c r="AU48" t="n">
-        <v>1321142.016</v>
+        <v>1334584.064</v>
       </c>
       <c r="AV48" t="n">
-        <v>1321142.016</v>
+        <v>1334584.064</v>
       </c>
       <c r="AW48" t="n">
-        <v>1321142.016</v>
+        <v>1334584.064</v>
       </c>
       <c r="AX48" t="n">
         <v>1334584.064</v>
@@ -8339,31 +8339,31 @@
         <v>34176</v>
       </c>
       <c r="AO49" t="n">
-        <v>-31486</v>
+        <v>34176</v>
       </c>
       <c r="AP49" t="n">
-        <v>-32678</v>
+        <v>34871</v>
       </c>
       <c r="AQ49" t="n">
-        <v>-32314</v>
+        <v>36052</v>
       </c>
       <c r="AR49" t="n">
-        <v>-31950</v>
+        <v>36768</v>
       </c>
       <c r="AS49" t="n">
-        <v>-31707</v>
+        <v>38398</v>
       </c>
       <c r="AT49" t="n">
-        <v>-31707</v>
+        <v>39629</v>
       </c>
       <c r="AU49" t="n">
-        <v>-31707</v>
+        <v>39696</v>
       </c>
       <c r="AV49" t="n">
-        <v>-31707</v>
+        <v>40415</v>
       </c>
       <c r="AW49" t="n">
-        <v>-31332</v>
+        <v>41394</v>
       </c>
       <c r="AX49" t="n">
         <v>42284</v>
@@ -8659,31 +8659,31 @@
         <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>394244.992</v>
+        <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>485380</v>
+        <v>0</v>
       </c>
       <c r="AQ51" t="n">
-        <v>485380</v>
+        <v>0</v>
       </c>
       <c r="AR51" t="n">
-        <v>485380</v>
+        <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>485380</v>
+        <v>0</v>
       </c>
       <c r="AT51" t="n">
-        <v>541988.992</v>
+        <v>0</v>
       </c>
       <c r="AU51" t="n">
-        <v>532788.992</v>
+        <v>0</v>
       </c>
       <c r="AV51" t="n">
-        <v>532552.992</v>
+        <v>0</v>
       </c>
       <c r="AW51" t="n">
-        <v>541003.008</v>
+        <v>0</v>
       </c>
       <c r="AX51" t="n">
         <v>0</v>
@@ -8819,31 +8819,31 @@
         <v>-106246</v>
       </c>
       <c r="AO52" t="n">
-        <v>-32516</v>
+        <v>-173139.008</v>
       </c>
       <c r="AP52" t="n">
-        <v>0</v>
+        <v>-336096</v>
       </c>
       <c r="AQ52" t="n">
-        <v>-5516</v>
+        <v>-302859.008</v>
       </c>
       <c r="AR52" t="n">
-        <v>-12931</v>
+        <v>-280820</v>
       </c>
       <c r="AS52" t="n">
-        <v>-9075</v>
+        <v>-188170</v>
       </c>
       <c r="AT52" t="n">
-        <v>0</v>
+        <v>-344259.008</v>
       </c>
       <c r="AU52" t="n">
-        <v>-1504</v>
+        <v>-324191.008</v>
       </c>
       <c r="AV52" t="n">
-        <v>-12277</v>
+        <v>-206328</v>
       </c>
       <c r="AW52" t="n">
-        <v>-19376</v>
+        <v>-135070</v>
       </c>
       <c r="AX52" t="n">
         <v>-326660</v>
@@ -8979,31 +8979,31 @@
         <v>-260192</v>
       </c>
       <c r="AO53" t="n">
-        <v>103441</v>
+        <v>-313928.992</v>
       </c>
       <c r="AP53" t="n">
-        <v>106854</v>
+        <v>-354976.992</v>
       </c>
       <c r="AQ53" t="n">
-        <v>106854</v>
+        <v>-201192</v>
       </c>
       <c r="AR53" t="n">
-        <v>106854</v>
+        <v>-264264</v>
       </c>
       <c r="AS53" t="n">
-        <v>106854</v>
+        <v>-271569.984</v>
       </c>
       <c r="AT53" t="n">
-        <v>84427</v>
+        <v>-228772</v>
       </c>
       <c r="AU53" t="n">
-        <v>84427</v>
+        <v>-195824</v>
       </c>
       <c r="AV53" t="n">
-        <v>84427</v>
+        <v>-151548.992</v>
       </c>
       <c r="AW53" t="n">
-        <v>84427</v>
+        <v>344488.992</v>
       </c>
       <c r="AX53" t="n">
         <v>-135412.992</v>
@@ -9139,28 +9139,28 @@
         <v>482107.008</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>545982.976</v>
       </c>
       <c r="AP54" t="n">
-        <v>0</v>
+        <v>569272</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0</v>
+        <v>463052.992</v>
       </c>
       <c r="AR54" t="n">
-        <v>0</v>
+        <v>527401.9840000001</v>
       </c>
       <c r="AS54" t="n">
-        <v>0</v>
+        <v>548528</v>
       </c>
       <c r="AT54" t="n">
-        <v>0</v>
+        <v>529623.008</v>
       </c>
       <c r="AU54" t="n">
-        <v>0</v>
+        <v>512252</v>
       </c>
       <c r="AV54" t="n">
-        <v>0</v>
+        <v>473112.992</v>
       </c>
       <c r="AW54" t="n">
         <v>0</v>
@@ -9299,31 +9299,31 @@
         <v>0</v>
       </c>
       <c r="AO55" t="n">
-        <v>12733</v>
+        <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>12733</v>
+        <v>0</v>
       </c>
       <c r="AQ55" t="n">
-        <v>12733</v>
+        <v>0</v>
       </c>
       <c r="AR55" t="n">
-        <v>12733</v>
+        <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>12739</v>
+        <v>0</v>
       </c>
       <c r="AT55" t="n">
-        <v>12739</v>
+        <v>0</v>
       </c>
       <c r="AU55" t="n">
-        <v>12734</v>
+        <v>0</v>
       </c>
       <c r="AV55" t="n">
-        <v>12734</v>
+        <v>0</v>
       </c>
       <c r="AW55" t="n">
-        <v>12734</v>
+        <v>0</v>
       </c>
       <c r="AX55" t="n">
         <v>0</v>
@@ -9729,31 +9729,31 @@
         <v>466902.016</v>
       </c>
       <c r="AO59" t="n">
-        <v>21354</v>
+        <v>266810</v>
       </c>
       <c r="AP59" t="n">
-        <v>29923</v>
+        <v>182126.944</v>
       </c>
       <c r="AQ59" t="n">
-        <v>34134</v>
+        <v>456688.992</v>
       </c>
       <c r="AR59" t="n">
-        <v>34302</v>
+        <v>412288</v>
       </c>
       <c r="AS59" t="n">
-        <v>34378</v>
+        <v>453312</v>
       </c>
       <c r="AT59" t="n">
-        <v>38052</v>
+        <v>445611.04</v>
       </c>
       <c r="AU59" t="n">
-        <v>36977</v>
+        <v>478092.992</v>
       </c>
       <c r="AV59" t="n">
-        <v>38998</v>
+        <v>597478.976</v>
       </c>
       <c r="AW59" t="n">
-        <v>38371</v>
+        <v>486972.992</v>
       </c>
       <c r="AX59" t="n">
         <v>361804.992</v>
@@ -9883,31 +9883,31 @@
         <v>-233304</v>
       </c>
       <c r="AO60" t="n">
-        <v>-2719</v>
+        <v>-221679.008</v>
       </c>
       <c r="AP60" t="n">
-        <v>-5520</v>
+        <v>-246071.008</v>
       </c>
       <c r="AQ60" t="n">
-        <v>-7004</v>
+        <v>-243556.992</v>
       </c>
       <c r="AR60" t="n">
-        <v>-4944</v>
+        <v>-277228.992</v>
       </c>
       <c r="AS60" t="n">
-        <v>-4459</v>
+        <v>-305984.992</v>
       </c>
       <c r="AT60" t="n">
-        <v>-5892</v>
+        <v>-322954.976</v>
       </c>
       <c r="AU60" t="n">
-        <v>-5907</v>
+        <v>-288824.992</v>
       </c>
       <c r="AV60" t="n">
-        <v>-6864</v>
+        <v>-306807.008</v>
       </c>
       <c r="AW60" t="n">
-        <v>-8319</v>
+        <v>-314308.992</v>
       </c>
       <c r="AX60" t="n">
         <v>-332536.96</v>
@@ -10037,31 +10037,31 @@
         <v>233598</v>
       </c>
       <c r="AO61" t="n">
-        <v>18635</v>
+        <v>45131</v>
       </c>
       <c r="AP61" t="n">
-        <v>24403</v>
+        <v>-63943.992</v>
       </c>
       <c r="AQ61" t="n">
-        <v>27130</v>
+        <v>213132</v>
       </c>
       <c r="AR61" t="n">
-        <v>29358</v>
+        <v>135059.008</v>
       </c>
       <c r="AS61" t="n">
-        <v>29919</v>
+        <v>147327.008</v>
       </c>
       <c r="AT61" t="n">
-        <v>32160</v>
+        <v>122656</v>
       </c>
       <c r="AU61" t="n">
-        <v>31070</v>
+        <v>189268</v>
       </c>
       <c r="AV61" t="n">
-        <v>32134</v>
+        <v>290672</v>
       </c>
       <c r="AW61" t="n">
-        <v>30052</v>
+        <v>172664</v>
       </c>
       <c r="AX61" t="n">
         <v>29268</v>
@@ -10191,31 +10191,31 @@
         <v>0</v>
       </c>
       <c r="AO62" t="n">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>-501</v>
+        <v>-141</v>
       </c>
       <c r="AQ62" t="n">
-        <v>-710</v>
+        <v>0</v>
       </c>
       <c r="AR62" t="n">
-        <v>-307</v>
+        <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>-446</v>
+        <v>0</v>
       </c>
       <c r="AT62" t="n">
-        <v>-768</v>
+        <v>0</v>
       </c>
       <c r="AU62" t="n">
-        <v>-523</v>
+        <v>0</v>
       </c>
       <c r="AV62" t="n">
-        <v>-978</v>
+        <v>0</v>
       </c>
       <c r="AW62" t="n">
-        <v>-1048</v>
+        <v>0</v>
       </c>
       <c r="AX62" t="n">
         <v>-3322</v>
@@ -10345,31 +10345,31 @@
         <v>-71660</v>
       </c>
       <c r="AO63" t="n">
-        <v>-6500</v>
+        <v>-61032</v>
       </c>
       <c r="AP63" t="n">
-        <v>264880</v>
+        <v>-57647</v>
       </c>
       <c r="AQ63" t="n">
-        <v>-9132</v>
+        <v>-58061</v>
       </c>
       <c r="AR63" t="n">
-        <v>-7939</v>
+        <v>-61809</v>
       </c>
       <c r="AS63" t="n">
-        <v>-8512</v>
+        <v>-78584</v>
       </c>
       <c r="AT63" t="n">
-        <v>153108.992</v>
+        <v>-128272.016</v>
       </c>
       <c r="AU63" t="n">
-        <v>5518</v>
+        <v>-64818</v>
       </c>
       <c r="AV63" t="n">
-        <v>-11197</v>
+        <v>-57443</v>
       </c>
       <c r="AW63" t="n">
-        <v>-10329</v>
+        <v>-64194</v>
       </c>
       <c r="AX63" t="n">
         <v>-113620.008</v>
@@ -10499,13 +10499,13 @@
         <v>-942</v>
       </c>
       <c r="AO64" t="n">
-        <v>0</v>
+        <v>-374</v>
       </c>
       <c r="AP64" t="n">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AR64" t="n">
         <v>0</v>
@@ -10514,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="AT64" t="n">
-        <v>0</v>
+        <v>-340</v>
       </c>
       <c r="AU64" t="n">
         <v>0</v>
@@ -10523,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="AW64" t="n">
-        <v>0</v>
+        <v>-3940</v>
       </c>
       <c r="AX64" t="n">
         <v>3940</v>
@@ -10653,28 +10653,28 @@
         <v>11249</v>
       </c>
       <c r="AO65" t="n">
-        <v>0</v>
+        <v>44454</v>
       </c>
       <c r="AP65" t="n">
-        <v>0</v>
+        <v>19785</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0</v>
+        <v>3876</v>
       </c>
       <c r="AR65" t="n">
-        <v>0</v>
+        <v>4634</v>
       </c>
       <c r="AS65" t="n">
-        <v>0</v>
+        <v>3085</v>
       </c>
       <c r="AT65" t="n">
-        <v>0</v>
+        <v>24849</v>
       </c>
       <c r="AU65" t="n">
-        <v>0</v>
+        <v>3145</v>
       </c>
       <c r="AV65" t="n">
-        <v>0</v>
+        <v>3308</v>
       </c>
       <c r="AW65" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="AT66" t="n">
-        <v>0</v>
+        <v>-24740</v>
       </c>
       <c r="AU66" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="AW66" t="n">
-        <v>0</v>
+        <v>-1031</v>
       </c>
       <c r="AX66" t="n">
         <v>1031</v>
@@ -10961,31 +10961,31 @@
         <v>4454</v>
       </c>
       <c r="AO67" t="n">
-        <v>-363</v>
+        <v>-188</v>
       </c>
       <c r="AP67" t="n">
-        <v>-3845</v>
+        <v>-2105</v>
       </c>
       <c r="AQ67" t="n">
-        <v>-2118</v>
+        <v>1304</v>
       </c>
       <c r="AR67" t="n">
-        <v>-2092</v>
+        <v>12267</v>
       </c>
       <c r="AS67" t="n">
-        <v>-1522</v>
+        <v>4174</v>
       </c>
       <c r="AT67" t="n">
-        <v>-13551</v>
+        <v>-3705</v>
       </c>
       <c r="AU67" t="n">
-        <v>-427</v>
+        <v>-1377</v>
       </c>
       <c r="AV67" t="n">
-        <v>-225</v>
+        <v>6621</v>
       </c>
       <c r="AW67" t="n">
-        <v>-104</v>
+        <v>910</v>
       </c>
       <c r="AX67" t="n">
         <v>-1851</v>
@@ -11115,31 +11115,31 @@
         <v>-65338</v>
       </c>
       <c r="AO68" t="n">
-        <v>-20091</v>
+        <v>-82231</v>
       </c>
       <c r="AP68" t="n">
-        <v>-29151</v>
+        <v>-82797.992</v>
       </c>
       <c r="AQ68" t="n">
-        <v>-17909</v>
+        <v>-85868</v>
       </c>
       <c r="AR68" t="n">
-        <v>-22845</v>
+        <v>-71647</v>
       </c>
       <c r="AS68" t="n">
-        <v>-12397</v>
+        <v>13120</v>
       </c>
       <c r="AT68" t="n">
-        <v>-24229</v>
+        <v>-89052.008</v>
       </c>
       <c r="AU68" t="n">
-        <v>-27619</v>
+        <v>-100037</v>
       </c>
       <c r="AV68" t="n">
-        <v>-25742</v>
+        <v>-118828</v>
       </c>
       <c r="AW68" t="n">
-        <v>-20089</v>
+        <v>-32415</v>
       </c>
       <c r="AX68" t="n">
         <v>-69267.008</v>
@@ -11269,31 +11269,31 @@
         <v>1202</v>
       </c>
       <c r="AO69" t="n">
-        <v>6821</v>
+        <v>20622</v>
       </c>
       <c r="AP69" t="n">
-        <v>9802</v>
+        <v>-16876</v>
       </c>
       <c r="AQ69" t="n">
-        <v>10838</v>
+        <v>46666</v>
       </c>
       <c r="AR69" t="n">
-        <v>12615</v>
+        <v>26221</v>
       </c>
       <c r="AS69" t="n">
-        <v>12411</v>
+        <v>101696</v>
       </c>
       <c r="AT69" t="n">
-        <v>8501</v>
+        <v>-913</v>
       </c>
       <c r="AU69" t="n">
-        <v>9546</v>
+        <v>11481</v>
       </c>
       <c r="AV69" t="n">
-        <v>8252</v>
+        <v>10033</v>
       </c>
       <c r="AW69" t="n">
-        <v>6903</v>
+        <v>21624</v>
       </c>
       <c r="AX69" t="n">
         <v>342740.032</v>
@@ -11423,31 +11423,31 @@
         <v>-66540</v>
       </c>
       <c r="AO70" t="n">
-        <v>-26912</v>
+        <v>-102853</v>
       </c>
       <c r="AP70" t="n">
-        <v>-38953</v>
+        <v>-65922.008</v>
       </c>
       <c r="AQ70" t="n">
-        <v>-28747</v>
+        <v>-132534</v>
       </c>
       <c r="AR70" t="n">
-        <v>-35460</v>
+        <v>-97868</v>
       </c>
       <c r="AS70" t="n">
-        <v>-24808</v>
+        <v>-88576</v>
       </c>
       <c r="AT70" t="n">
-        <v>-32730</v>
+        <v>-88138.992</v>
       </c>
       <c r="AU70" t="n">
-        <v>-37165</v>
+        <v>-111518</v>
       </c>
       <c r="AV70" t="n">
-        <v>-33994</v>
+        <v>-128861</v>
       </c>
       <c r="AW70" t="n">
-        <v>-26992</v>
+        <v>-54039</v>
       </c>
       <c r="AX70" t="n">
         <v>-412007.04</v>
@@ -11751,31 +11751,31 @@
         <v>111361</v>
       </c>
       <c r="AO74" t="n">
-        <v>-8452</v>
+        <v>-54240</v>
       </c>
       <c r="AP74" t="n">
-        <v>255785.984</v>
+        <v>-185981.984</v>
       </c>
       <c r="AQ74" t="n">
-        <v>-2739</v>
+        <v>74723</v>
       </c>
       <c r="AR74" t="n">
-        <v>-3825</v>
+        <v>18504</v>
       </c>
       <c r="AS74" t="n">
-        <v>7042</v>
+        <v>89122</v>
       </c>
       <c r="AT74" t="n">
-        <v>146721.008</v>
+        <v>-98604</v>
       </c>
       <c r="AU74" t="n">
-        <v>8019</v>
+        <v>26181</v>
       </c>
       <c r="AV74" t="n">
-        <v>-6008</v>
+        <v>124330</v>
       </c>
       <c r="AW74" t="n">
-        <v>-1518</v>
+        <v>71994</v>
       </c>
       <c r="AX74" t="n">
         <v>-152751.008</v>
@@ -11905,31 +11905,31 @@
         <v>-13522</v>
       </c>
       <c r="AO75" t="n">
-        <v>-458</v>
+        <v>-22735</v>
       </c>
       <c r="AP75" t="n">
-        <v>-1167</v>
+        <v>-9911</v>
       </c>
       <c r="AQ75" t="n">
-        <v>-1272</v>
+        <v>-30777</v>
       </c>
       <c r="AR75" t="n">
-        <v>-1252</v>
+        <v>-23902</v>
       </c>
       <c r="AS75" t="n">
-        <v>-1571</v>
+        <v>2647</v>
       </c>
       <c r="AT75" t="n">
-        <v>-1928</v>
+        <v>-29352</v>
       </c>
       <c r="AU75" t="n">
-        <v>-2610</v>
+        <v>-24267</v>
       </c>
       <c r="AV75" t="n">
-        <v>-2113</v>
+        <v>-25749</v>
       </c>
       <c r="AW75" t="n">
-        <v>-2734</v>
+        <v>-25236</v>
       </c>
       <c r="AX75" t="n">
         <v>6121</v>
@@ -12059,31 +12059,31 @@
         <v>-34</v>
       </c>
       <c r="AO76" t="n">
-        <v>4500</v>
+        <v>10082</v>
       </c>
       <c r="AP76" t="n">
-        <v>-41345</v>
+        <v>4854</v>
       </c>
       <c r="AQ76" t="n">
-        <v>4</v>
+        <v>-10709</v>
       </c>
       <c r="AR76" t="n">
-        <v>-4</v>
+        <v>27437</v>
       </c>
       <c r="AS76" t="n">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="AT76" t="n">
-        <v>-20692</v>
+        <v>-28133</v>
       </c>
       <c r="AU76" t="n">
-        <v>0</v>
+        <v>18154</v>
       </c>
       <c r="AV76" t="n">
-        <v>0</v>
+        <v>19282</v>
       </c>
       <c r="AW76" t="n">
-        <v>0</v>
+        <v>24500</v>
       </c>
       <c r="AX76" t="n">
         <v>-44960</v>
@@ -12327,31 +12327,31 @@
         <v>0</v>
       </c>
       <c r="AO79" t="n">
-        <v>-608</v>
+        <v>0</v>
       </c>
       <c r="AP79" t="n">
-        <v>-24595</v>
+        <v>0</v>
       </c>
       <c r="AQ79" t="n">
-        <v>-1509</v>
+        <v>0</v>
       </c>
       <c r="AR79" t="n">
-        <v>-2334</v>
+        <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>-1615</v>
+        <v>0</v>
       </c>
       <c r="AT79" t="n">
-        <v>-51988</v>
+        <v>0</v>
       </c>
       <c r="AU79" t="n">
-        <v>-6913</v>
+        <v>0</v>
       </c>
       <c r="AV79" t="n">
-        <v>-2652</v>
+        <v>0</v>
       </c>
       <c r="AW79" t="n">
-        <v>-2847</v>
+        <v>0</v>
       </c>
       <c r="AX79" t="n">
         <v>0</v>
@@ -12481,31 +12481,31 @@
         <v>97805</v>
       </c>
       <c r="AO80" t="n">
-        <v>-5018</v>
+        <v>-66893</v>
       </c>
       <c r="AP80" t="n">
-        <v>188679.008</v>
+        <v>-187039.008</v>
       </c>
       <c r="AQ80" t="n">
-        <v>-5516</v>
+        <v>33237</v>
       </c>
       <c r="AR80" t="n">
-        <v>-7415</v>
+        <v>22039</v>
       </c>
       <c r="AS80" t="n">
-        <v>3856</v>
+        <v>92650</v>
       </c>
       <c r="AT80" t="n">
-        <v>72113</v>
+        <v>-156088.992</v>
       </c>
       <c r="AU80" t="n">
-        <v>-1504</v>
+        <v>20068</v>
       </c>
       <c r="AV80" t="n">
-        <v>-10773</v>
+        <v>117863</v>
       </c>
       <c r="AW80" t="n">
-        <v>-7099</v>
+        <v>71258</v>
       </c>
       <c r="AX80" t="n">
         <v>-191590</v>
